--- a/data/Subset 1/Video Mosaic Grade 4 Infinite Number Line 3.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 4 Infinite Number Line 3.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>A student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5027,7 +5027,7 @@
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5300,7 +5300,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5425,7 +5425,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -6496,7 +6496,7 @@
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
